--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +744,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +779,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +833,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8000</v>
+        <v>3900</v>
       </c>
       <c r="E12" s="3">
         <v>2900</v>
       </c>
       <c r="F12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +934,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +985,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1016,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,17 +1031,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1070,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,14 +1084,14 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1101,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,17 +1116,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1136,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,26 +1171,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1206,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1241,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1276,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1311,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1486,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,14 +1504,14 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1521,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1591,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F41" s="3">
         <v>7900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1731,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,20 +1766,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1801,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,20 +1836,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1871,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,20 +1906,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,20 +1941,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,19 +1976,25 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +2081,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F54" s="3">
         <v>11300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2220,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,19 +2251,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2019,20 +2286,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2321,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,13 +2356,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2106,37 +2391,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2651,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2721,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F72" s="3">
         <v>5300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2861,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2971,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,13 +3025,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2644,11 +3041,11 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +3056,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3231,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,25 +3285,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3316,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,25 +3386,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3576,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,26 +3611,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,26 +3646,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -1121,8 +1121,8 @@
       <c r="F21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3700</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
         <v>-8200</v>
@@ -3041,11 +3041,11 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3251,11 +3251,11 @@
       <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-4800</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3301,11 +3301,11 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3406,11 +3406,11 @@
       <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3596,11 +3596,11 @@
       <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>9300</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3631,11 +3631,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-400</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3666,11 +3666,11 @@
       <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>4000</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,51 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,8 +719,14 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,8 +760,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,8 +801,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +842,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,31 +863,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F12" s="3">
         <v>3900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8000</v>
       </c>
       <c r="G12" s="3">
         <v>2900</v>
       </c>
       <c r="H12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -870,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +941,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,8 +982,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,32 +1041,34 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1078,14 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1031,23 +1093,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1119,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,8 +1140,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1107,31 +1177,37 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-8200</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-3700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1142,8 +1218,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1177,32 +1259,38 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1300,14 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1221,23 +1315,23 @@
         <v>-400</v>
       </c>
       <c r="E24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1341,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,32 +1382,38 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,32 +1423,38 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1464,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,8 +1628,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1501,22 +1643,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1527,32 +1669,38 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1710,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,32 +1751,38 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,37 +1792,43 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1838,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,26 +1876,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F41" s="3">
         <v>27000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1913,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,26 +1954,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1995,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,26 +2036,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,26 +2077,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F46" s="3">
         <v>32500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,26 +2118,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,26 +2159,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2200,14 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1994,13 +2218,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2017,8 +2241,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,22 +2323,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2113,17 +2355,23 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,26 +2405,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F54" s="3">
         <v>34900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2446,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,26 +2484,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,25 +2521,31 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2292,26 +2562,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,26 +2603,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,20 +2644,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2397,19 +2685,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2423,17 +2717,23 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,26 +2849,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2890,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2692,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,26 +3071,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F72" s="3">
         <v>24700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +3112,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,26 +3235,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F76" s="3">
         <v>27800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3276,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,37 +3317,43 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,32 +3363,38 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3404,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,31 +3425,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3062,8 +3462,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,31 +3667,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3272,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,8 +3729,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3296,22 +3740,22 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3322,8 +3766,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,8 +3848,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3401,22 +3863,22 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3889,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,31 +4070,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>25300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3617,31 +4111,37 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3652,31 +4152,37 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F102" s="3">
         <v>21100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3685,6 +4191,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +877,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,26 +1122,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,26 +1184,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,21 +1233,21 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1304,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1348,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,26 +1712,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2049,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2137,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2181,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E46" s="3">
         <v>16300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,29 +2225,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2269,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2174,20 +2281,20 @@
         <v>5400</v>
       </c>
       <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2224,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,26 +2445,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2480,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2533,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E54" s="3">
         <v>24100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2615,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,28 +2657,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2568,29 +2701,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2745,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,23 +2789,26 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2691,8 +2833,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2700,13 +2845,13 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2723,8 +2868,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E72" s="3">
         <v>13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E76" s="3">
         <v>16700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,20 +3639,20 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,22 +3950,23 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -3755,10 +3975,10 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,34 +4080,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>25300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,35 +4362,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,29 +1218,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,21 +1273,21 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,38 +1394,41 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,29 +1782,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E41" s="3">
         <v>32200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2236,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2149,23 +2248,23 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E46" s="3">
         <v>34700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,32 +2330,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,31 +2377,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F48" s="3">
-        <v>2300</v>
+        <v>5200</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,10 +2448,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,31 +2565,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2483,8 +2603,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E54" s="3">
         <v>40200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2669,22 +2803,22 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2704,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,26 +2932,29 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2836,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,13 +2994,13 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2871,8 +3017,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>28700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,20 +3841,20 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3960,16 +4181,16 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -3978,10 +4199,10 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4092,28 +4322,28 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E100" s="3">
         <v>24700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>25300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,38 +4611,41 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>20200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,32 +1182,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,32 +1252,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,21 +1313,21 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1406,32 +1452,32 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E41" s="3">
         <v>31400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2235,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2335,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,23 +2350,23 @@
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E46" s="3">
         <v>35400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,35 +2435,38 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,34 +2485,37 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5200</v>
       </c>
       <c r="F48" s="3">
         <v>5200</v>
       </c>
       <c r="G48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>200</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2451,10 +2562,10 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,34 +2685,37 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2606,8 +2726,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,22 +2940,22 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,29 +3075,32 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2982,13 +3125,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2997,13 +3143,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -3020,8 +3166,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E76" s="3">
         <v>26400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3844,20 +4043,20 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,28 +4392,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -4202,10 +4423,10 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,40 +4540,43 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>7700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>25300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,41 +4860,44 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,14 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +793,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +849,14 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +905,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +931,49 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +983,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1039,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,31 +1095,37 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1106,8 +1151,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1174,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1226,14 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,38 +1241,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1282,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1308,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,38 +1319,38 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1360,14 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,24 +1389,24 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1416,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,47 +1472,53 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,47 +1528,53 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>1300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-700</v>
       </c>
       <c r="I24" s="3">
         <v>-400</v>
       </c>
       <c r="J24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1584,14 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1640,53 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1696,53 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1752,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1808,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1864,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1920,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1976,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,38 +1991,38 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +2032,53 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2088,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2144,53 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2200,58 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2261,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2287,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2309,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F41" s="3">
         <v>25300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>31400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>32200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2361,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,41 +2417,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2473,14 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2529,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2585,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
         <v>28500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>35400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>34700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>16300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>23400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>32500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2641,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,41 +2697,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,16 +2753,22 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2565,13 +2786,13 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2809,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2865,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,40 +2921,46 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2729,17 +2968,23 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +3033,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F54" s="3">
         <v>34000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>40200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>24100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>27700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3089,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3115,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3137,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,40 +3189,46 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>400</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2978,41 +3245,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3301,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,35 +3357,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>9300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3128,35 +3413,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>200</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,17 +3460,23 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3525,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3581,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3637,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3693,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3719,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3771,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3827,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3883,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3939,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F72" s="3">
         <v>16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>28700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>24700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3995,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4051,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4107,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +4163,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F76" s="3">
         <v>20200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>27800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4219,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4275,58 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4336,53 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4392,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,13 +4418,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>600</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -4046,23 +4443,23 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4470,14 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4526,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4582,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4638,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4694,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4750,53 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-8200</v>
+        <v>-25800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4806,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,46 +4832,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4884,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4940,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,46 +4996,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>1200</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +5052,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5078,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5130,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5186,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5242,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,47 +5298,53 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>7700</v>
+        <v>7900</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="H100" s="3">
         <v>24700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K100" s="3">
         <v>25300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,47 +5354,53 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4913,47 +5410,53 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-800</v>
+        <v>-19000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="H102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K102" s="3">
         <v>21100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5464,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +946,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>17000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4100</v>
       </c>
       <c r="F12" s="3">
         <v>4100</v>
       </c>
       <c r="G12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,17 +1121,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1150,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>25300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,8 +1259,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,41 +1271,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,41 +1353,41 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,8 +1400,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,21 +1432,21 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,16 +1577,19 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
@@ -1552,32 +1598,32 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,41 +2061,41 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,44 +2513,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,19 +2631,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -2556,23 +2655,23 @@
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>17000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
         <v>28500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,44 +2749,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,43 +2808,46 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5200</v>
       </c>
       <c r="I48" s="3">
         <v>5200</v>
       </c>
       <c r="J48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>200</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2759,19 +2867,22 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2792,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,43 +3044,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2974,8 +3094,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E54" s="3">
         <v>22000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,19 +3326,22 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3216,22 +3350,22 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3251,44 +3385,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,38 +3503,41 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>9800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>9300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3419,22 +3562,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3443,13 +3589,13 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3612,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>13700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
         <v>13900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,49 +4618,50 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-25800</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-13400</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H89" s="3">
         <v>13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5054,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4864,7 +5085,7 @@
         <v>-300</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4873,10 +5094,10 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,49 +5229,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
       <c r="J94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>7900</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>7400</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-42100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>25200</v>
       </c>
       <c r="K100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="L100" s="3">
         <v>25300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,50 +5606,53 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-800</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>-700</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>300</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-19000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>-6900</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-27100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-6900</v>
-      </c>
       <c r="J102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EVAX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="92">
   <si>
     <t>EVAX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4100</v>
       </c>
       <c r="G12" s="3">
         <v>4100</v>
       </c>
       <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,20 +1144,23 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1176,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,44 +1301,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,44 +1387,44 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1435,21 +1472,21 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,31 +1499,34 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,10 +1635,10 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-200</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
@@ -1601,32 +1647,32 @@
         <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2061,44 +2131,44 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,47 +2484,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,47 +2606,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,22 +2730,25 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
@@ -2658,23 +2757,23 @@
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
         <v>17000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3">
         <v>28500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,47 +2854,50 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,46 +2916,49 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5200</v>
       </c>
       <c r="J48" s="3">
         <v>5200</v>
       </c>
       <c r="K48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2870,22 +2978,25 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2906,10 +3017,10 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,46 +3164,49 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -3097,8 +3217,8 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E54" s="3">
         <v>20500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,47 +3400,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,22 +3460,25 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3353,22 +3487,22 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3388,47 +3522,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,47 +3584,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,41 +3646,44 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>9300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3565,25 +3708,28 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3592,13 +3738,13 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3615,8 +3761,8 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,47 +3956,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
         <v>13900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,26 +4844,26 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,8 +5187,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,39 +5204,39 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5064,22 +5285,22 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -5088,7 +5309,7 @@
         <v>-300</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -5097,10 +5318,10 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,8 +5459,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5246,38 +5476,38 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
       </c>
       <c r="M94" s="3">
         <v>-300</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,8 +5793,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,39 +5810,39 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>25200</v>
       </c>
       <c r="K100" s="3">
         <v>25200</v>
       </c>
       <c r="L100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="M100" s="3">
         <v>25300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,39 +5872,39 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5668,8 +5917,11 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5682,39 +5934,39 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
